--- a/my_package/traj_excel_30/tested_robot_traj_1_.xlsx
+++ b/my_package/traj_excel_30/tested_robot_traj_1_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.2028864896758006</v>
+        <v>0.2028864896758006</v>
       </c>
       <c r="C1" t="n">
-        <v>1.56825683117444</v>
+        <v>0.002539495620456482</v>
       </c>
       <c r="D1" t="n">
-        <v>1.379316785363834</v>
+        <v>-1.379316785363834</v>
       </c>
       <c r="E1" t="n">
-        <v>1.381856437894394</v>
+        <v>0.188939888900502</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796384046431</v>
+        <v>1.570796384046431</v>
       </c>
       <c r="G1" t="n">
         <v>-1.367909888287239</v>
@@ -449,19 +449,19 @@
         <v>0.2075129133157847</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2046333296544263</v>
+        <v>0.2046333296544263</v>
       </c>
       <c r="C2" t="n">
-        <v>1.56826302734732</v>
+        <v>0.002533299447576215</v>
       </c>
       <c r="D2" t="n">
-        <v>1.379362809194377</v>
+        <v>-1.379362809194377</v>
       </c>
       <c r="E2" t="n">
-        <v>1.381896265457374</v>
+        <v>0.1889000613375225</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796384060886</v>
+        <v>1.570796384060886</v>
       </c>
       <c r="G2" t="n">
         <v>-1.366163048366586</v>
@@ -472,19 +472,19 @@
         <v>0.4150258266315694</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.215527422831531</v>
+        <v>0.215527422831531</v>
       </c>
       <c r="C3" t="n">
-        <v>1.568301669515765</v>
+        <v>0.002494657279132034</v>
       </c>
       <c r="D3" t="n">
-        <v>1.379649834854683</v>
+        <v>-1.379649834854683</v>
       </c>
       <c r="E3" t="n">
-        <v>1.382144648358741</v>
+        <v>0.1886516784361557</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796384151034</v>
+        <v>1.570796384151034</v>
       </c>
       <c r="G3" t="n">
         <v>-1.355268955551023</v>
@@ -495,19 +495,19 @@
         <v>0.6225387399473542</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2412914350012368</v>
+        <v>0.2412914350012368</v>
       </c>
       <c r="C4" t="n">
-        <v>1.568393056406061</v>
+        <v>0.002403270388835187</v>
       </c>
       <c r="D4" t="n">
-        <v>1.380328636888492</v>
+        <v>-1.380328636888492</v>
       </c>
       <c r="E4" t="n">
-        <v>1.382732062105762</v>
+        <v>0.1880642646891343</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796384364231</v>
+        <v>1.570796384364231</v>
       </c>
       <c r="G4" t="n">
         <v>-1.329504944236346</v>
@@ -518,19 +518,19 @@
         <v>0.8300516532631389</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2844036859956439</v>
+        <v>0.2844036859956439</v>
       </c>
       <c r="C5" t="n">
-        <v>1.568545978805186</v>
+        <v>0.00225034798971023</v>
       </c>
       <c r="D5" t="n">
-        <v>1.381464511358056</v>
+        <v>-1.381464511358056</v>
       </c>
       <c r="E5" t="n">
-        <v>1.38371501183938</v>
+        <v>0.1870813149555161</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796384720984</v>
+        <v>1.570796384720984</v>
       </c>
       <c r="G5" t="n">
         <v>-1.286392694672704</v>
@@ -541,19 +541,19 @@
         <v>1.037564566578924</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3446388740118342</v>
+        <v>0.3446388740118342</v>
       </c>
       <c r="C6" t="n">
-        <v>1.568759637550687</v>
+        <v>0.002036689244209476</v>
       </c>
       <c r="D6" t="n">
-        <v>1.383051522257715</v>
+        <v>-1.383051522257715</v>
       </c>
       <c r="E6" t="n">
-        <v>1.385088360728601</v>
+        <v>0.1857079660662958</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796385219429</v>
+        <v>1.570796385219429</v>
       </c>
       <c r="G6" t="n">
         <v>-1.226157508655536</v>
@@ -564,19 +564,19 @@
         <v>1.245077479894708</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4196087999388747</v>
+        <v>0.4196087999388747</v>
       </c>
       <c r="C7" t="n">
-        <v>1.569025561520569</v>
+        <v>0.001770765274327443</v>
       </c>
       <c r="D7" t="n">
-        <v>1.385026747927482</v>
+        <v>-1.385026747927482</v>
       </c>
       <c r="E7" t="n">
-        <v>1.386797658364879</v>
+        <v>0.1839986684300178</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.570796385839804</v>
+        <v>1.570796385839804</v>
       </c>
       <c r="G7" t="n">
         <v>-1.151187585216519</v>
@@ -587,19 +587,19 @@
         <v>1.452590393210493</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5053030916848213</v>
+        <v>0.5053030916848213</v>
       </c>
       <c r="C8" t="n">
-        <v>1.569329525623181</v>
+        <v>0.001466801171715305</v>
       </c>
       <c r="D8" t="n">
-        <v>1.387284527466625</v>
+        <v>-1.387284527466625</v>
       </c>
       <c r="E8" t="n">
-        <v>1.388751469156507</v>
+        <v>0.1820448576383891</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.570796386548922</v>
+        <v>1.570796386548922</v>
       </c>
       <c r="G8" t="n">
         <v>-1.065493296314505</v>
@@ -610,19 +610,19 @@
         <v>1.660103306526278</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5966299285037232</v>
+        <v>0.5966299285037232</v>
       </c>
       <c r="C9" t="n">
-        <v>1.569653468787101</v>
+        <v>0.001142858007795339</v>
       </c>
       <c r="D9" t="n">
-        <v>1.389690707147247</v>
+        <v>-1.389690707147247</v>
       </c>
       <c r="E9" t="n">
-        <v>1.390833700723005</v>
+        <v>0.1799626260718912</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.57079638730465</v>
+        <v>1.57079638730465</v>
       </c>
       <c r="G9" t="n">
         <v>-0.9741664625264626</v>
@@ -633,19 +633,19 @@
         <v>1.867616219842062</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6879567653226248</v>
+        <v>0.6879567653226248</v>
       </c>
       <c r="C10" t="n">
-        <v>1.569977411951021</v>
+        <v>0.0008189148438753735</v>
       </c>
       <c r="D10" t="n">
-        <v>1.392096886827868</v>
+        <v>-1.392096886827868</v>
       </c>
       <c r="E10" t="n">
-        <v>1.392915932289503</v>
+        <v>0.1778803945053933</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.570796388060378</v>
+        <v>1.570796388060378</v>
       </c>
       <c r="G10" t="n">
         <v>-0.8828396287384205</v>
@@ -656,19 +656,19 @@
         <v>2.075129133157847</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7736510570685715</v>
+        <v>0.7736510570685715</v>
       </c>
       <c r="C11" t="n">
-        <v>1.570281376053633</v>
+        <v>0.0005149507412632363</v>
       </c>
       <c r="D11" t="n">
-        <v>1.394354666367011</v>
+        <v>-1.394354666367011</v>
       </c>
       <c r="E11" t="n">
-        <v>1.394869743081132</v>
+        <v>0.1759265837137646</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.570796388769496</v>
+        <v>1.570796388769496</v>
       </c>
       <c r="G11" t="n">
         <v>-0.7971453398364065</v>
@@ -679,19 +679,19 @@
         <v>2.282642046473632</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.8486209829956121</v>
+        <v>0.8486209829956121</v>
       </c>
       <c r="C12" t="n">
-        <v>1.570547300023515</v>
+        <v>0.0002490267713812027</v>
       </c>
       <c r="D12" t="n">
-        <v>1.396329892036778</v>
+        <v>-1.396329892036778</v>
       </c>
       <c r="E12" t="n">
-        <v>1.39657904071741</v>
+        <v>0.1742172860774866</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.570796389389871</v>
+        <v>1.570796389389871</v>
       </c>
       <c r="G12" t="n">
         <v>-0.7221754163973895</v>
@@ -702,19 +702,19 @@
         <v>2.490154959789417</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.908856171011802</v>
+        <v>0.908856171011802</v>
       </c>
       <c r="C13" t="n">
-        <v>1.570760958769016</v>
+        <v>3.536802588044886e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>1.397916902936438</v>
+        <v>-1.397916902936438</v>
       </c>
       <c r="E13" t="n">
-        <v>1.39795238960663</v>
+        <v>0.1728439371882663</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.570796389888316</v>
+        <v>1.570796389888316</v>
       </c>
       <c r="G13" t="n">
         <v>-0.661940230380222</v>
@@ -725,19 +725,19 @@
         <v>2.697667873105202</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9519684220062091</v>
+        <v>0.9519684220062091</v>
       </c>
       <c r="C14" t="n">
-        <v>1.570913881168141</v>
+        <v>-0.0001175543732445084</v>
       </c>
       <c r="D14" t="n">
-        <v>1.399052777406001</v>
+        <v>-1.399052777406001</v>
       </c>
       <c r="E14" t="n">
-        <v>1.398935339340248</v>
+        <v>0.1718609874546481</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.570796390245069</v>
+        <v>1.570796390245069</v>
       </c>
       <c r="G14" t="n">
         <v>-0.6188279808165791</v>
@@ -748,19 +748,19 @@
         <v>2.905180786420986</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9777324341759148</v>
+        <v>0.9777324341759148</v>
       </c>
       <c r="C15" t="n">
-        <v>1.571005268058438</v>
+        <v>-0.0002089412635413557</v>
       </c>
       <c r="D15" t="n">
-        <v>1.39973157943981</v>
+        <v>-1.39973157943981</v>
       </c>
       <c r="E15" t="n">
-        <v>1.39952275308727</v>
+        <v>0.1712735737076268</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.570796390458266</v>
+        <v>1.570796390458266</v>
       </c>
       <c r="G15" t="n">
         <v>-0.5930639695019023</v>
@@ -771,19 +771,19 @@
         <v>3.112693699736771</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9886265273530191</v>
+        <v>0.9886265273530191</v>
       </c>
       <c r="C16" t="n">
-        <v>1.571043910226882</v>
+        <v>-0.0002475834319855381</v>
       </c>
       <c r="D16" t="n">
-        <v>1.400018605100116</v>
+        <v>-1.400018605100116</v>
       </c>
       <c r="E16" t="n">
-        <v>1.399771135988637</v>
+        <v>0.1710251908062599</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.570796390548414</v>
+        <v>1.570796390548414</v>
       </c>
       <c r="G16" t="n">
         <v>-0.5821698766863396</v>
@@ -794,19 +794,19 @@
         <v>3.320206613052556</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.9903733673316449</v>
+        <v>0.9903733673316449</v>
       </c>
       <c r="C17" t="n">
-        <v>1.571050106399762</v>
+        <v>-0.0002537796048658041</v>
       </c>
       <c r="D17" t="n">
-        <v>1.40006462893066</v>
+        <v>-1.40006462893066</v>
       </c>
       <c r="E17" t="n">
-        <v>1.399810963551616</v>
+        <v>0.1709853632432805</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.570796390562869</v>
+        <v>1.570796390562869</v>
       </c>
       <c r="G17" t="n">
         <v>-0.5804230367656862</v>
